--- a/medicine/Mort/Peine_de_mort_en_Indiana/Peine_de_mort_en_Indiana.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Indiana/Peine_de_mort_en_Indiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Indiana, la pendaison fut une méthode d'exécution légale jusqu'en 1913, puis la chaise électrique fut introduite à partir de cette date. Après une période de neuf ans d'abolition, la peine capitale fut réinstaurée en 1981. L'injection létale se substitua à l'électrocution en 1995[1]. depuis 1981, il y a eu 20 exécutions, dont les 3 premières par électrocution. 12 hommes et une femme sont actuellement condamnés à mort, la seule femme est Debra Brown, complice d'un tueur en série lui-même exécuté en Ohio.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Indiana, la pendaison fut une méthode d'exécution légale jusqu'en 1913, puis la chaise électrique fut introduite à partir de cette date. Après une période de neuf ans d'abolition, la peine capitale fut réinstaurée en 1981. L'injection létale se substitua à l'électrocution en 1995. depuis 1981, il y a eu 20 exécutions, dont les 3 premières par électrocution. 12 hommes et une femme sont actuellement condamnés à mort, la seule femme est Debra Brown, complice d'un tueur en série lui-même exécuté en Ohio.
 Selon la loi de l'État, le jury devra délibérer si le parquet a requis la peine de mort. S'il parvient à un verdict unanime, celui-ci sera appliqué. Dans le cas contraire, le juge devra décider d'un verdict à la place du jury, éventuellement un verdict de mort. L'ordre d'exécution est prononcé par la Cour suprême de l'État, le gouverneur reçoit l'avis non-injonctif d'une commission avant de choisir de gracier, suspendre ou laisser faire l'exécution. Celles-ci ont lieu à Michigan City, avant « le lever du soleil » (peu après minuit dans la pratique). C'est en Indiana que se trouve le couloir de la mort fédéral, à Terre Haute.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Exécutions depuis 1973</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Michigan City, à la prison d’État de l'Indiana.
 </t>
@@ -543,9 +557,11 @@
           <t>Condamnés à mort</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 2019 le couloir de la mort de l'Indiana compte dix condamnés. Depuis 1973, six condamnés ont été graciés dans l'Indiana[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 2019 le couloir de la mort de l'Indiana compte dix condamnés. Depuis 1973, six condamnés ont été graciés dans l'Indiana,.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
